--- a/GUI + Reviews/output/ES2PR_df_20251126_131518.xlsx
+++ b/GUI + Reviews/output/ES2PR_df_20251126_131518.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_C20E63724AF0C8A931B4A1FD7B156744C0C09E54" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FCC8D3F-81C4-47A0-82D0-E25AE9A2B3B2}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_C20E63724AF0C8A931B4A1FD7B156744C0C09E54" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76EF2F64-186C-4257-89BE-E6C511FAE719}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index Composition" sheetId="1" r:id="rId1"/>
@@ -444,6 +444,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -735,7 +739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H21"/>
     </sheetView>
   </sheetViews>
@@ -3359,9 +3363,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
